--- a/Base_organizada/BBDD_AG_MJ/Estructura.xlsx
+++ b/Base_organizada/BBDD_AG_MJ/Estructura.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\OneDrive - Universidad Icesi (@icesi.edu.co)\Escritorio\Prueba trabajo\Trabajo_AulaGlobal\Proyecto_AulaGlobal\Base_organizada\BBDD_AG_MJ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bambooanalytics-my.sharepoint.com/personal/francisco_echeverri_wadua_com_co/Documents/Documentos/Prueba_GIT_AG/Proyecto_AulaGlobal/Base_organizada/BBDD_AG_MJ/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A831686-7DBD-42E3-B35F-FBDF98891DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2°" sheetId="1" r:id="rId1"/>
@@ -365,14 +365,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -692,36 +685,36 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D1048576"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="23" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -805,18 +798,18 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="6" width="11.44140625" style="2"/>
-    <col min="11" max="12" width="8.88671875" style="2"/>
-    <col min="13" max="13" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.44140625" style="2"/>
-    <col min="17" max="17" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.33203125" style="2" customWidth="1"/>
-    <col min="19" max="22" width="11.44140625" style="2"/>
+    <col min="5" max="6" width="11.42578125" style="2"/>
+    <col min="11" max="12" width="8.85546875" style="2"/>
+    <col min="13" max="13" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.42578125" style="2"/>
+    <col min="17" max="17" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.28515625" style="2" customWidth="1"/>
+    <col min="19" max="22" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -900,18 +893,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="6" width="11.44140625" style="2"/>
-    <col min="10" max="11" width="11.44140625" style="2"/>
-    <col min="13" max="13" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.44140625" style="2"/>
+    <col min="5" max="6" width="11.42578125" style="2"/>
+    <col min="10" max="11" width="11.42578125" style="2"/>
+    <col min="13" max="13" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.42578125" style="2"/>
     <col min="17" max="17" width="22" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22" style="2" customWidth="1"/>
-    <col min="19" max="22" width="11.44140625" style="2"/>
+    <col min="19" max="22" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -993,20 +986,20 @@
       <selection sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.44140625" style="2"/>
-    <col min="3" max="3" width="16.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="2"/>
-    <col min="5" max="5" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.44140625" style="2"/>
-    <col min="8" max="8" width="29.5546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="19" width="11.44140625" style="2"/>
-    <col min="22" max="22" width="11.44140625" style="2"/>
+    <col min="1" max="2" width="11.42578125" style="2"/>
+    <col min="3" max="3" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="2"/>
+    <col min="5" max="5" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" style="2"/>
+    <col min="8" max="8" width="29.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="19" width="11.42578125" style="2"/>
+    <col min="22" max="22" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1088,18 +1081,18 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="36.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>35</v>
       </c>
@@ -1122,7 +1115,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1145,7 +1138,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
@@ -1168,7 +1161,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>3</v>
       </c>
@@ -1191,7 +1184,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>4</v>
       </c>
@@ -1214,7 +1207,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>5</v>
       </c>
@@ -1237,7 +1230,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>6</v>
       </c>
@@ -1260,7 +1253,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>7</v>
       </c>
@@ -1283,7 +1276,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>8</v>
       </c>
@@ -1306,7 +1299,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>9</v>
       </c>
@@ -1329,7 +1322,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>10</v>
       </c>
@@ -1352,7 +1345,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>11</v>
       </c>
@@ -1375,7 +1368,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>22</v>
       </c>
@@ -1389,7 +1382,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>23</v>
       </c>
@@ -1403,7 +1396,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>24</v>
       </c>
@@ -1417,7 +1410,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>25</v>
       </c>
@@ -1431,7 +1424,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>26</v>
       </c>
@@ -1445,7 +1438,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>27</v>
       </c>
@@ -1459,7 +1452,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>28</v>
       </c>
@@ -1473,7 +1466,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>66</v>
       </c>
@@ -1487,7 +1480,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>29</v>
       </c>
@@ -1501,7 +1494,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>31</v>
       </c>
@@ -1515,7 +1508,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>68</v>
       </c>
@@ -1529,7 +1522,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
         <v>69</v>
       </c>
@@ -1543,7 +1536,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>70</v>
       </c>
@@ -1557,7 +1550,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>72</v>
       </c>
@@ -1571,7 +1564,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>74</v>
       </c>
@@ -1595,6 +1588,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007E6519502A214D43B3DDFCF5E94F901E" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a656ca01a167fd0e4b97d6bc72b415a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3eff0a0a-75ec-4759-8be4-4c323b0f0df5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="853b7d86bf2a6f543a61f7d2cb2222fa" ns2:_="">
     <xsd:import namespace="3eff0a0a-75ec-4759-8be4-4c323b0f0df5"/>
@@ -1726,22 +1728,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{426117DC-AB30-4B43-96B7-E1FF927A0793}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A99E7C55-EEB0-4D1D-9A12-238F87B01DC2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1759,19 +1760,11 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8624843F-F8BB-4D77-A374-F4676586F230}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{426117DC-AB30-4B43-96B7-E1FF927A0793}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Base_organizada/BBDD_AG_MJ/Estructura.xlsx
+++ b/Base_organizada/BBDD_AG_MJ/Estructura.xlsx
@@ -685,7 +685,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1588,12 +1588,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1729,15 +1726,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{426117DC-AB30-4B43-96B7-E1FF927A0793}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8624843F-F8BB-4D77-A374-F4676586F230}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1761,10 +1762,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8624843F-F8BB-4D77-A374-F4676586F230}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{426117DC-AB30-4B43-96B7-E1FF927A0793}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Base_organizada/BBDD_AG_MJ/Estructura.xlsx
+++ b/Base_organizada/BBDD_AG_MJ/Estructura.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bambooanalytics-my.sharepoint.com/personal/francisco_echeverri_wadua_com_co/Documents/Documentos/Prueba_GIT_AG/Proyecto_AulaGlobal/Base_organizada/BBDD_AG_MJ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A831686-7DBD-42E3-B35F-FBDF98891DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{9A831686-7DBD-42E3-B35F-FBDF98891DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7D64988-869A-46CF-8487-D53CCDF5B154}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2085" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2°" sheetId="1" r:id="rId1"/>
@@ -276,9 +276,6 @@
     <t>EDUARDO RIASCOS GRUESO</t>
   </si>
   <si>
-    <t>ex</t>
-  </si>
-  <si>
     <t>municipio</t>
   </si>
   <si>
@@ -304,6 +301,9 @@
   </si>
   <si>
     <t>palabras_inventadas_correctas</t>
+  </si>
+  <si>
+    <t>departamento</t>
   </si>
 </sst>
 </file>
@@ -685,7 +685,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,37 +722,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>5</v>
@@ -773,7 +773,7 @@
         <v>33</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>7</v>
@@ -796,7 +796,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68432508-C727-4011-AFF7-69A008331504}">
   <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -817,37 +819,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>5</v>
@@ -868,7 +870,7 @@
         <v>33</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>7</v>
@@ -891,7 +893,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5BCF363-BBF0-49E8-9EC0-26B946BE8826}">
   <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -912,37 +916,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>5</v>
@@ -963,7 +967,7 @@
         <v>33</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>7</v>
@@ -982,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FE51F3-E1BD-4DAC-9177-0D99FDDB4D4D}">
   <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection sqref="A1:V1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,37 +1011,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>5</v>
@@ -1058,7 +1062,7 @@
         <v>33</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>7</v>
@@ -1588,12 +1592,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007E6519502A214D43B3DDFCF5E94F901E" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a656ca01a167fd0e4b97d6bc72b415a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3eff0a0a-75ec-4759-8be4-4c323b0f0df5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="853b7d86bf2a6f543a61f7d2cb2222fa" ns2:_="">
     <xsd:import namespace="3eff0a0a-75ec-4759-8be4-4c323b0f0df5"/>
@@ -1725,7 +1723,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1734,16 +1732,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8624843F-F8BB-4D77-A374-F4676586F230}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A99E7C55-EEB0-4D1D-9A12-238F87B01DC2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1761,10 +1756,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{426117DC-AB30-4B43-96B7-E1FF927A0793}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8624843F-F8BB-4D77-A374-F4676586F230}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Base_organizada/BBDD_AG_MJ/Estructura.xlsx
+++ b/Base_organizada/BBDD_AG_MJ/Estructura.xlsx
@@ -1724,18 +1724,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1757,18 +1757,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{426117DC-AB30-4B43-96B7-E1FF927A0793}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8624843F-F8BB-4D77-A374-F4676586F230}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{426117DC-AB30-4B43-96B7-E1FF927A0793}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Base_organizada/BBDD_AG_MJ/Estructura.xlsx
+++ b/Base_organizada/BBDD_AG_MJ/Estructura.xlsx
@@ -685,7 +685,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1724,18 +1724,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1757,18 +1757,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{426117DC-AB30-4B43-96B7-E1FF927A0793}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8624843F-F8BB-4D77-A374-F4676586F230}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{426117DC-AB30-4B43-96B7-E1FF927A0793}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Base_organizada/BBDD_AG_MJ/Estructura.xlsx
+++ b/Base_organizada/BBDD_AG_MJ/Estructura.xlsx
@@ -683,9 +683,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,6 +1592,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007E6519502A214D43B3DDFCF5E94F901E" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a656ca01a167fd0e4b97d6bc72b415a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3eff0a0a-75ec-4759-8be4-4c323b0f0df5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="853b7d86bf2a6f543a61f7d2cb2222fa" ns2:_="">
     <xsd:import namespace="3eff0a0a-75ec-4759-8be4-4c323b0f0df5"/>
@@ -1723,15 +1732,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1739,6 +1739,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{426117DC-AB30-4B43-96B7-E1FF927A0793}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A99E7C55-EEB0-4D1D-9A12-238F87B01DC2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1756,14 +1764,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{426117DC-AB30-4B43-96B7-E1FF927A0793}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8624843F-F8BB-4D77-A374-F4676586F230}">
   <ds:schemaRefs>

--- a/Base_organizada/BBDD_AG_MJ/Estructura.xlsx
+++ b/Base_organizada/BBDD_AG_MJ/Estructura.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bambooanalytics-my.sharepoint.com/personal/francisco_echeverri_wadua_com_co/Documents/Documentos/Prueba_GIT_AG/Proyecto_AulaGlobal/Base_organizada/BBDD_AG_MJ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{9A831686-7DBD-42E3-B35F-FBDF98891DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7D64988-869A-46CF-8487-D53CCDF5B154}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{9A831686-7DBD-42E3-B35F-FBDF98891DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F0A0F08-37DB-4CE5-8774-1CAB475D2235}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2085" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2°" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="87">
   <si>
     <t>programa</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>departamento</t>
+  </si>
+  <si>
+    <t>egma_items</t>
   </si>
 </sst>
 </file>
@@ -681,11 +684,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
+      <selection pane="bottomLeft" activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,7 +717,7 @@
     <col min="22" max="22" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -780,6 +783,9 @@
       </c>
       <c r="V1" s="3" t="s">
         <v>34</v>
+      </c>
+      <c r="W1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -794,10 +800,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68432508-C727-4011-AFF7-69A008331504}">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,7 +817,7 @@
     <col min="19" max="22" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -877,6 +883,9 @@
       </c>
       <c r="V1" s="3" t="s">
         <v>34</v>
+      </c>
+      <c r="W1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -891,10 +900,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5BCF363-BBF0-49E8-9EC0-26B946BE8826}">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,7 +917,7 @@
     <col min="19" max="22" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -974,6 +983,9 @@
       </c>
       <c r="V1" s="3" t="s">
         <v>34</v>
+      </c>
+      <c r="W1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -984,10 +996,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FE51F3-E1BD-4DAC-9177-0D99FDDB4D4D}">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,7 +1015,7 @@
     <col min="22" max="22" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1069,6 +1081,9 @@
       </c>
       <c r="V1" s="3" t="s">
         <v>34</v>
+      </c>
+      <c r="W1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1592,12 +1607,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1733,15 +1745,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{426117DC-AB30-4B43-96B7-E1FF927A0793}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8624843F-F8BB-4D77-A374-F4676586F230}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1765,10 +1781,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8624843F-F8BB-4D77-A374-F4676586F230}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{426117DC-AB30-4B43-96B7-E1FF927A0793}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>